--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,18 @@
     </font>
     <font>
       <b val="1"/>
+    </font>
+    <font>
+      <color rgb="00FFA500"/>
+    </font>
+    <font>
+      <color rgb="0000FF00"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
+    <font>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,11 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +480,11 @@
           <t>Report 5 time(90%)</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Variance (Report 4 to Report 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -471,18 +492,23 @@
           <t>Transaction1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
+      <c r="C2" s="3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D2" s="3" t="n">
         <v>1.44</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>1.33</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>1.92</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.5899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -491,18 +517,23 @@
           <t>Transaction2</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="5" t="n">
         <v>2.12</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="n">
+      <c r="C3" s="2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D3" s="5" t="n">
         <v>2.89</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5" t="n">
         <v>2.12</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>2.12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -511,18 +542,23 @@
           <t>Transaction3</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>1.89</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
+      <c r="C4" s="5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D4" s="3" t="n">
         <v>1.76</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>1.89</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>1.89</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -531,18 +567,23 @@
           <t>Transaction4</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>0.95</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="n">
+      <c r="C5" s="3" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D5" s="3" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>1.84</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>-0.02000000000000002</v>
       </c>
     </row>
     <row r="6">
@@ -551,18 +592,23 @@
           <t>Transaction5</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="n">
+      <c r="C6" s="3" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D6" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>1.88</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.6499999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -571,18 +617,23 @@
           <t>Transaction6</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="n">
+      <c r="C7" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="3" t="n">
         <v>1</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -591,18 +642,23 @@
           <t>Transaction7</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="n">
+      <c r="C8" s="5" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="D8" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="3" t="n">
         <v>1.23</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="3" t="n">
         <v>1.23</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -611,18 +667,23 @@
           <t>Transaction8</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="5" t="n">
         <v>3.76</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="n">
+      <c r="C9" s="5" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="D9" s="5" t="n">
         <v>3.76</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>3.76</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>3.76</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -631,18 +692,23 @@
           <t>Transaction9</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="5" t="n">
         <v>2.34</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="n">
+      <c r="C10" s="3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D10" s="5" t="n">
         <v>2.34</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>2.34</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>2.34</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -651,18 +717,23 @@
           <t>Transaction10</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
+      <c r="C11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="3" t="n">
         <v>1.34</v>
+      </c>
+      <c r="G11" s="4" t="n">
+        <v>-0.6099999999999999</v>
       </c>
     </row>
     <row r="12">
@@ -671,18 +742,23 @@
           <t>Transaction11</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>1.43</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
+      <c r="C12" s="3" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="D12" s="3" t="n">
         <v>1.43</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="3" t="n">
         <v>1.43</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="3" t="n">
         <v>1.43</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -691,18 +767,23 @@
           <t>Transaction12</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="n">
+      <c r="C13" s="3" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D13" s="2" t="n">
         <v>1.87</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2" t="n">
         <v>1.86</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="3" t="n">
         <v>1.52</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>-0.3400000000000001</v>
       </c>
     </row>
     <row r="14">
@@ -711,18 +792,23 @@
           <t>Transaction13</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="5" t="n">
         <v>2.89</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
+      <c r="C14" s="3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D14" s="5" t="n">
         <v>2.89</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5" t="n">
         <v>2.89</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="5" t="n">
         <v>2.89</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -731,18 +817,23 @@
           <t>Transaction14</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="n">
+      <c r="C15" s="3" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D15" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="3" t="n">
         <v>0.54</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="3" t="n">
         <v>0.54</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -751,18 +842,23 @@
           <t>Transaction15</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="5" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="D16" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="3" t="n">
         <v>0.12</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="3" t="n">
         <v>0.12</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Variance (Report 4 to Report 5)</t>
+          <t>R5 Vs R1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>R5 Vs R2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>R5 Vs R3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>R5 Vs R4</t>
         </is>
       </c>
     </row>
@@ -508,6 +523,15 @@
         <v>1.92</v>
       </c>
       <c r="G2" s="4" t="n">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="J2" s="4" t="n">
         <v>0.5899999999999999</v>
       </c>
     </row>
@@ -535,6 +559,15 @@
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H3" s="4" t="n">
+        <v>0.2300000000000002</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -560,6 +593,15 @@
       <c r="G4" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" s="4" t="n">
+        <v>-0.4299999999999999</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>0.1299999999999999</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -583,6 +625,15 @@
         <v>1.84</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.8900000000000001</v>
+      </c>
+      <c r="J5" s="4" t="n">
         <v>-0.02000000000000002</v>
       </c>
     </row>
@@ -610,6 +661,15 @@
       <c r="G6" s="4" t="n">
         <v>0.6499999999999999</v>
       </c>
+      <c r="H6" s="4" t="n">
+        <v>0.5599999999999998</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.6499999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -635,6 +695,15 @@
       <c r="G7" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="4" t="n">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -660,6 +729,15 @@
       <c r="G8" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H8" s="4" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -685,6 +763,15 @@
       <c r="G9" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -710,6 +797,15 @@
       <c r="G10" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -735,6 +831,15 @@
       <c r="G11" s="4" t="n">
         <v>-0.6099999999999999</v>
       </c>
+      <c r="H11" s="4" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>-0.5599999999999998</v>
+      </c>
+      <c r="J11" s="4" t="n">
+        <v>-0.6099999999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -760,6 +865,15 @@
       <c r="G12" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="4" t="n">
+        <v>0.7799999999999999</v>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -785,6 +899,15 @@
       <c r="G13" s="4" t="n">
         <v>-0.3400000000000001</v>
       </c>
+      <c r="H13" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>-0.3500000000000001</v>
+      </c>
+      <c r="J13" s="4" t="n">
+        <v>-0.3400000000000001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -810,6 +933,15 @@
       <c r="G14" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H14" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -835,6 +967,15 @@
       <c r="G15" s="4" t="n">
         <v>0</v>
       </c>
+      <c r="H15" s="4" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="I15" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -858,6 +999,15 @@
         <v>0.12</v>
       </c>
       <c r="G16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -29,15 +29,19 @@
       <b val="1"/>
     </font>
     <font>
+      <b val="1"/>
       <color rgb="00FFA500"/>
     </font>
     <font>
-      <color rgb="0000FF00"/>
+      <b val="1"/>
+      <color rgb="0000b300"/>
     </font>
     <font>
+      <b val="1"/>
       <color rgb="00FF0000"/>
     </font>
     <font>
+      <b val="1"/>
       <color rgb="00000000"/>
     </font>
   </fonts>

--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -34,11 +34,11 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="0000b300"/>
+      <color rgb="00FF0000"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FF0000"/>
+      <color rgb="0000b300"/>
     </font>
     <font>
       <b val="1"/>
@@ -71,15 +71,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -461,27 +462,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Report 1 time(90%)</t>
+          <t>R1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Report 2 time(90%)</t>
+          <t>R2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Report 3 time(90%)</t>
+          <t>R3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Report 4 time(90%)</t>
+          <t>R4</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Report 5 time(90%)</t>
+          <t>R5</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -506,41 +507,49 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Transaction1</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="4" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="4" t="n">
         <v>1.44</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="4" t="n">
         <v>1.33</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="3" t="n">
         <v>1.92</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.5899999999999999</v>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>0.04 ↑</t>
+        </is>
+      </c>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>0.72 ↑</t>
+        </is>
+      </c>
+      <c r="I2" s="5" t="inlineStr">
+        <is>
+          <t>0.48 ↑</t>
+        </is>
+      </c>
+      <c r="J2" s="5" t="inlineStr">
+        <is>
+          <t>0.59 ↑</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Transaction2</t>
         </is>
@@ -548,7 +557,7 @@
       <c r="B3" s="5" t="n">
         <v>2.12</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>1.89</v>
       </c>
       <c r="D3" s="5" t="n">
@@ -560,191 +569,239 @@
       <c r="F3" s="5" t="n">
         <v>2.12</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.2300000000000002</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>-0.77</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0</v>
+      <c r="G3" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>0.23 ↑</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>-0.77 ↓</t>
+        </is>
+      </c>
+      <c r="J3" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>Transaction3</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
+      <c r="B4" s="3" t="n">
         <v>1.89</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>2.32</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="4" t="n">
         <v>1.76</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="3" t="n">
         <v>1.89</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="3" t="n">
         <v>1.89</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>-0.4299999999999999</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.1299999999999999</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0</v>
+      <c r="G4" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>-0.43 ↓</t>
+        </is>
+      </c>
+      <c r="I4" s="5" t="inlineStr">
+        <is>
+          <t>0.13 ↑</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Transaction4</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="4" t="n">
         <v>1.56</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="4" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="3" t="n">
         <v>1.86</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="3" t="n">
         <v>1.84</v>
       </c>
-      <c r="G5" s="4" t="n">
-        <v>0.8900000000000001</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.8900000000000001</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>-0.02000000000000002</v>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>0.89 ↑</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>0.28 ↑</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>0.89 ↑</t>
+        </is>
+      </c>
+      <c r="J5" s="4" t="inlineStr">
+        <is>
+          <t>-0.02 ↓</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Transaction5</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="4" t="n">
         <v>1.32</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="3" t="n">
         <v>1.88</v>
       </c>
-      <c r="G6" s="4" t="n">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>0.5599999999999998</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.6499999999999999</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.6499999999999999</v>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>0.65 ↑</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>0.56 ↑</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>0.65 ↑</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>0.65 ↑</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Transaction6</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>1.9</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>-0.8999999999999999</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0</v>
+      <c r="G7" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H7" s="4" t="inlineStr">
+        <is>
+          <t>-0.90 ↓</t>
+        </is>
+      </c>
+      <c r="I7" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J7" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Transaction7</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>1.23</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>2.43</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4" t="n">
         <v>1.23</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>-1.2</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0</v>
+      <c r="G8" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H8" s="4" t="inlineStr">
+        <is>
+          <t>-1.20 ↓</t>
+        </is>
+      </c>
+      <c r="I8" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J8" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Transaction8</t>
         </is>
@@ -764,21 +821,29 @@
       <c r="F9" s="5" t="n">
         <v>3.76</v>
       </c>
-      <c r="G9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0</v>
+      <c r="G9" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>1.75 ↑</t>
+        </is>
+      </c>
+      <c r="I9" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J9" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Transaction9</t>
         </is>
@@ -786,7 +851,7 @@
       <c r="B10" s="5" t="n">
         <v>2.34</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="4" t="n">
         <v>1.23</v>
       </c>
       <c r="D10" s="5" t="n">
@@ -798,123 +863,155 @@
       <c r="F10" s="5" t="n">
         <v>2.34</v>
       </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
+      <c r="G10" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>1.11 ↑</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Transaction10</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <v>1.95</v>
       </c>
       <c r="C11" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="2" t="n">
+      <c r="D11" s="3" t="n">
         <v>1.9</v>
       </c>
-      <c r="E11" s="2" t="n">
+      <c r="E11" s="3" t="n">
         <v>1.95</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4" t="n">
         <v>1.34</v>
       </c>
-      <c r="G11" s="4" t="n">
-        <v>-0.6099999999999999</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>-0.6599999999999999</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>-0.5599999999999998</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>-0.6099999999999999</v>
+      <c r="G11" s="4" t="inlineStr">
+        <is>
+          <t>-0.61 ↓</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>-0.66 ↓</t>
+        </is>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>-0.56 ↓</t>
+        </is>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
+        <is>
+          <t>-0.61 ↓</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Transaction11</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="4" t="n">
         <v>0.65</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4" t="n">
         <v>1.43</v>
       </c>
-      <c r="G12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>0.7799999999999999</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>0</v>
+      <c r="G12" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>0.78 ↑</t>
+        </is>
+      </c>
+      <c r="I12" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J12" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Transaction12</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
+      <c r="B13" s="3" t="n">
         <v>1.86</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="4" t="n">
         <v>0.33</v>
       </c>
-      <c r="D13" s="2" t="n">
+      <c r="D13" s="3" t="n">
         <v>1.87</v>
       </c>
-      <c r="E13" s="2" t="n">
+      <c r="E13" s="3" t="n">
         <v>1.86</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4" t="n">
         <v>1.52</v>
       </c>
-      <c r="G13" s="4" t="n">
-        <v>-0.3400000000000001</v>
-      </c>
-      <c r="H13" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="I13" s="4" t="n">
-        <v>-0.3500000000000001</v>
-      </c>
-      <c r="J13" s="4" t="n">
-        <v>-0.3400000000000001</v>
+      <c r="G13" s="4" t="inlineStr">
+        <is>
+          <t>-0.34 ↓</t>
+        </is>
+      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>1.19 ↑</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="inlineStr">
+        <is>
+          <t>-0.35 ↓</t>
+        </is>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>-0.34 ↓</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Transaction13</t>
         </is>
@@ -922,7 +1019,7 @@
       <c r="B14" s="5" t="n">
         <v>2.89</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="4" t="n">
         <v>1.44</v>
       </c>
       <c r="D14" s="5" t="n">
@@ -934,85 +1031,109 @@
       <c r="F14" s="5" t="n">
         <v>2.89</v>
       </c>
-      <c r="G14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" s="4" t="n">
-        <v>0</v>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>1.45 ↑</t>
+        </is>
+      </c>
+      <c r="I14" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J14" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Transaction14</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="4" t="n">
         <v>1.29</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c r="D15" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="E15" s="3" t="n">
+      <c r="E15" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="G15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4" t="n">
-        <v>-0.75</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="4" t="n">
-        <v>0</v>
+      <c r="G15" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H15" s="4" t="inlineStr">
+        <is>
+          <t>-0.75 ↓</t>
+        </is>
+      </c>
+      <c r="I15" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J15" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Transaction15</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>0.12</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>2.87</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c r="D16" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="E16" s="3" t="n">
+      <c r="E16" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="G16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4" t="n">
-        <v>-2.75</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4" t="n">
-        <v>0</v>
+      <c r="G16" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>-2.75 ↓</t>
+        </is>
+      </c>
+      <c r="I16" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
+      </c>
+      <c r="J16" s="6" t="inlineStr">
+        <is>
+          <t>0.00 →</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -529,22 +529,22 @@
       </c>
       <c r="G2" s="5" t="inlineStr">
         <is>
-          <t>0.04 ↑</t>
+          <t>2.08 % ↑</t>
         </is>
       </c>
       <c r="H2" s="5" t="inlineStr">
         <is>
-          <t>0.72 ↑</t>
+          <t>37.50 % ↑</t>
         </is>
       </c>
       <c r="I2" s="5" t="inlineStr">
         <is>
-          <t>0.48 ↑</t>
+          <t>25.00 % ↑</t>
         </is>
       </c>
       <c r="J2" s="5" t="inlineStr">
         <is>
-          <t>0.59 ↑</t>
+          <t>30.73 % ↑</t>
         </is>
       </c>
     </row>
@@ -571,22 +571,22 @@
       </c>
       <c r="G3" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H3" s="5" t="inlineStr">
         <is>
-          <t>0.23 ↑</t>
+          <t>10.85 % ↑</t>
         </is>
       </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
-          <t>-0.77 ↓</t>
+          <t>-36.32 % ↓</t>
         </is>
       </c>
       <c r="J3" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -613,22 +613,22 @@
       </c>
       <c r="G4" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H4" s="4" t="inlineStr">
         <is>
-          <t>-0.43 ↓</t>
+          <t>-22.75 % ↓</t>
         </is>
       </c>
       <c r="I4" s="5" t="inlineStr">
         <is>
-          <t>0.13 ↑</t>
+          <t>6.88 % ↑</t>
         </is>
       </c>
       <c r="J4" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -655,22 +655,22 @@
       </c>
       <c r="G5" s="5" t="inlineStr">
         <is>
-          <t>0.89 ↑</t>
+          <t>48.37 % ↑</t>
         </is>
       </c>
       <c r="H5" s="5" t="inlineStr">
         <is>
-          <t>0.28 ↑</t>
+          <t>15.22 % ↑</t>
         </is>
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>0.89 ↑</t>
+          <t>48.37 % ↑</t>
         </is>
       </c>
       <c r="J5" s="4" t="inlineStr">
         <is>
-          <t>-0.02 ↓</t>
+          <t>-1.09 % ↓</t>
         </is>
       </c>
     </row>
@@ -697,22 +697,22 @@
       </c>
       <c r="G6" s="5" t="inlineStr">
         <is>
-          <t>0.65 ↑</t>
+          <t>34.57 % ↑</t>
         </is>
       </c>
       <c r="H6" s="5" t="inlineStr">
         <is>
-          <t>0.56 ↑</t>
+          <t>29.79 % ↑</t>
         </is>
       </c>
       <c r="I6" s="5" t="inlineStr">
         <is>
-          <t>0.65 ↑</t>
+          <t>34.57 % ↑</t>
         </is>
       </c>
       <c r="J6" s="5" t="inlineStr">
         <is>
-          <t>0.65 ↑</t>
+          <t>34.57 % ↑</t>
         </is>
       </c>
     </row>
@@ -739,22 +739,22 @@
       </c>
       <c r="G7" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr">
         <is>
-          <t>-0.90 ↓</t>
+          <t>-90.00 % ↓</t>
         </is>
       </c>
       <c r="I7" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J7" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -781,22 +781,22 @@
       </c>
       <c r="G8" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>-1.20 ↓</t>
+          <t>-97.56 % ↓</t>
         </is>
       </c>
       <c r="I8" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J8" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -823,22 +823,22 @@
       </c>
       <c r="G9" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
-          <t>1.75 ↑</t>
+          <t>46.54 % ↑</t>
         </is>
       </c>
       <c r="I9" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J9" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -865,22 +865,22 @@
       </c>
       <c r="G10" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H10" s="5" t="inlineStr">
         <is>
-          <t>1.11 ↑</t>
+          <t>47.44 % ↑</t>
         </is>
       </c>
       <c r="I10" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J10" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -907,22 +907,22 @@
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>-0.61 ↓</t>
+          <t>-45.52 % ↓</t>
         </is>
       </c>
       <c r="H11" s="4" t="inlineStr">
         <is>
-          <t>-0.66 ↓</t>
+          <t>-49.25 % ↓</t>
         </is>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>-0.56 ↓</t>
+          <t>-41.79 % ↓</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
-          <t>-0.61 ↓</t>
+          <t>-45.52 % ↓</t>
         </is>
       </c>
     </row>
@@ -949,22 +949,22 @@
       </c>
       <c r="G12" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H12" s="5" t="inlineStr">
         <is>
-          <t>0.78 ↑</t>
+          <t>54.55 % ↑</t>
         </is>
       </c>
       <c r="I12" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J12" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -991,22 +991,22 @@
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>-0.34 ↓</t>
+          <t>-22.37 % ↓</t>
         </is>
       </c>
       <c r="H13" s="5" t="inlineStr">
         <is>
-          <t>1.19 ↑</t>
+          <t>78.29 % ↑</t>
         </is>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>-0.35 ↓</t>
+          <t>-23.03 % ↓</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
         <is>
-          <t>-0.34 ↓</t>
+          <t>-22.37 % ↓</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="G14" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H14" s="5" t="inlineStr">
         <is>
-          <t>1.45 ↑</t>
+          <t>50.17 % ↑</t>
         </is>
       </c>
       <c r="I14" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J14" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -1075,22 +1075,22 @@
       </c>
       <c r="G15" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr">
         <is>
-          <t>-0.75 ↓</t>
+          <t>-138.89 % ↓</t>
         </is>
       </c>
       <c r="I15" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J15" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="G16" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="H16" s="4" t="inlineStr">
         <is>
-          <t>-2.75 ↓</t>
+          <t>-2291.67 % ↓</t>
         </is>
       </c>
       <c r="I16" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
       <c r="J16" s="6" t="inlineStr">
         <is>
-          <t>0.00 →</t>
+          <t>0.00 % →</t>
         </is>
       </c>
     </row>

--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -45,12 +45,18 @@
       <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -71,9 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -446,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,684 +464,924 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Transactions</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>R1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>R2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>R3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>R4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>R5</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>R5 Vs R1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>R5 Vs R2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>R5 Vs R3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>R5 Vs R4</t>
         </is>
       </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>R4 Vs R3</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>R3 Vs R2</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
+          <t>R2 Vs R1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Transaction1</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>1.2</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="5" t="n">
         <v>1.44</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="E2" s="5" t="n">
         <v>1.33</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="4" t="n">
         <v>1.92</v>
       </c>
-      <c r="G2" s="5" t="inlineStr">
+      <c r="G2" s="6" t="inlineStr">
         <is>
           <t>2.08 % ↑</t>
         </is>
       </c>
-      <c r="H2" s="5" t="inlineStr">
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>37.50 % ↑</t>
         </is>
       </c>
-      <c r="I2" s="5" t="inlineStr">
+      <c r="I2" s="6" t="inlineStr">
         <is>
           <t>25.00 % ↑</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="6" t="inlineStr">
         <is>
           <t>30.73 % ↑</t>
         </is>
       </c>
+      <c r="K2" s="5" t="inlineStr">
+        <is>
+          <t>-8.27 % ↓</t>
+        </is>
+      </c>
+      <c r="L2" s="6" t="inlineStr">
+        <is>
+          <t>16.67 % ↑</t>
+        </is>
+      </c>
+      <c r="M2" s="5" t="inlineStr">
+        <is>
+          <t>-56.67 % ↓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Transaction2</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n">
+      <c r="B3" s="6" t="n">
         <v>2.12</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="4" t="n">
         <v>1.89</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="6" t="n">
         <v>2.89</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <v>2.12</v>
       </c>
-      <c r="F3" s="5" t="n">
+      <c r="F3" s="6" t="n">
         <v>2.12</v>
       </c>
-      <c r="G3" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H3" s="5" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>10.85 % ↑</t>
         </is>
       </c>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>-36.32 % ↓</t>
         </is>
       </c>
-      <c r="J3" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>-36.32 % ↓</t>
+        </is>
+      </c>
+      <c r="L3" s="6" t="inlineStr">
+        <is>
+          <t>34.60 % ↑</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>-12.17 % ↓</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Transaction3</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>1.89</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>2.32</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="5" t="n">
         <v>1.76</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="4" t="n">
         <v>1.89</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="4" t="n">
         <v>1.89</v>
       </c>
-      <c r="G4" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>-22.75 % ↓</t>
         </is>
       </c>
-      <c r="I4" s="5" t="inlineStr">
+      <c r="I4" s="6" t="inlineStr">
         <is>
           <t>6.88 % ↑</t>
         </is>
       </c>
-      <c r="J4" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K4" s="6" t="inlineStr">
+        <is>
+          <t>6.88 % ↑</t>
+        </is>
+      </c>
+      <c r="L4" s="5" t="inlineStr">
+        <is>
+          <t>-31.82 % ↓</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr">
+        <is>
+          <t>18.53 % ↑</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Transaction4</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>1.56</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>0.95</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="4" t="n">
         <v>1.86</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="4" t="n">
         <v>1.84</v>
       </c>
-      <c r="G5" s="5" t="inlineStr">
+      <c r="G5" s="6" t="inlineStr">
         <is>
           <t>48.37 % ↑</t>
         </is>
       </c>
-      <c r="H5" s="5" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>15.22 % ↑</t>
         </is>
       </c>
-      <c r="I5" s="5" t="inlineStr">
+      <c r="I5" s="6" t="inlineStr">
         <is>
           <t>48.37 % ↑</t>
         </is>
       </c>
-      <c r="J5" s="4" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t>-1.09 % ↓</t>
         </is>
       </c>
+      <c r="K5" s="6" t="inlineStr">
+        <is>
+          <t>48.92 % ↑</t>
+        </is>
+      </c>
+      <c r="L5" s="5" t="inlineStr">
+        <is>
+          <t>-64.21 % ↓</t>
+        </is>
+      </c>
+      <c r="M5" s="6" t="inlineStr">
+        <is>
+          <t>39.10 % ↑</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Transaction5</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="5" t="n">
         <v>1.32</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4" t="n">
         <v>1.88</v>
       </c>
-      <c r="G6" s="5" t="inlineStr">
+      <c r="G6" s="6" t="inlineStr">
         <is>
           <t>34.57 % ↑</t>
         </is>
       </c>
-      <c r="H6" s="5" t="inlineStr">
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>29.79 % ↑</t>
         </is>
       </c>
-      <c r="I6" s="5" t="inlineStr">
+      <c r="I6" s="6" t="inlineStr">
         <is>
           <t>34.57 % ↑</t>
         </is>
       </c>
-      <c r="J6" s="5" t="inlineStr">
+      <c r="J6" s="6" t="inlineStr">
         <is>
           <t>34.57 % ↑</t>
         </is>
       </c>
+      <c r="K6" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>-7.32 % ↓</t>
+        </is>
+      </c>
+      <c r="M6" s="6" t="inlineStr">
+        <is>
+          <t>6.82 % ↑</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Transaction6</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>-90.00 % ↓</t>
         </is>
       </c>
-      <c r="I7" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J7" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I7" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K7" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>-90.00 % ↓</t>
+        </is>
+      </c>
+      <c r="M7" s="6" t="inlineStr">
+        <is>
+          <t>47.37 % ↑</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Transaction7</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="6" t="n">
         <v>2.43</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="G8" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H8" s="4" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
         <is>
           <t>-97.56 % ↓</t>
         </is>
       </c>
-      <c r="I8" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J8" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K8" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L8" s="5" t="inlineStr">
+        <is>
+          <t>-97.56 % ↓</t>
+        </is>
+      </c>
+      <c r="M8" s="6" t="inlineStr">
+        <is>
+          <t>49.38 % ↑</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Transaction8</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <v>3.76</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="6" t="n">
         <v>2.01</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="6" t="n">
         <v>3.76</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="6" t="n">
         <v>3.76</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="6" t="n">
         <v>3.76</v>
       </c>
-      <c r="G9" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>46.54 % ↑</t>
         </is>
       </c>
-      <c r="I9" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J9" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I9" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K9" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L9" s="6" t="inlineStr">
+        <is>
+          <t>46.54 % ↑</t>
+        </is>
+      </c>
+      <c r="M9" s="5" t="inlineStr">
+        <is>
+          <t>-87.06 % ↓</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Transaction9</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <v>2.34</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="5" t="n">
         <v>1.23</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="6" t="n">
         <v>2.34</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="6" t="n">
         <v>2.34</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="6" t="n">
         <v>2.34</v>
       </c>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>47.44 % ↑</t>
         </is>
       </c>
-      <c r="I10" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J10" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I10" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K10" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L10" s="6" t="inlineStr">
+        <is>
+          <t>47.44 % ↑</t>
+        </is>
+      </c>
+      <c r="M10" s="5" t="inlineStr">
+        <is>
+          <t>-90.24 % ↓</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Transaction10</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>1.95</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="4" t="n">
         <v>1.9</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="4" t="n">
         <v>1.95</v>
       </c>
-      <c r="F11" s="4" t="n">
+      <c r="F11" s="5" t="n">
         <v>1.34</v>
       </c>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="G11" s="5" t="inlineStr">
         <is>
           <t>-45.52 % ↓</t>
         </is>
       </c>
-      <c r="H11" s="4" t="inlineStr">
+      <c r="H11" s="5" t="inlineStr">
         <is>
           <t>-49.25 % ↓</t>
         </is>
       </c>
-      <c r="I11" s="4" t="inlineStr">
+      <c r="I11" s="5" t="inlineStr">
         <is>
           <t>-41.79 % ↓</t>
         </is>
       </c>
-      <c r="J11" s="4" t="inlineStr">
+      <c r="J11" s="5" t="inlineStr">
         <is>
           <t>-45.52 % ↓</t>
         </is>
       </c>
+      <c r="K11" s="6" t="inlineStr">
+        <is>
+          <t>2.56 % ↑</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>-5.26 % ↓</t>
+        </is>
+      </c>
+      <c r="M11" s="6" t="inlineStr">
+        <is>
+          <t>2.50 % ↑</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Transaction11</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="5" t="n">
         <v>1.43</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="5" t="n">
         <v>0.65</v>
       </c>
-      <c r="D12" s="4" t="n">
+      <c r="D12" s="5" t="n">
         <v>1.43</v>
       </c>
-      <c r="E12" s="4" t="n">
+      <c r="E12" s="5" t="n">
         <v>1.43</v>
       </c>
-      <c r="F12" s="4" t="n">
+      <c r="F12" s="5" t="n">
         <v>1.43</v>
       </c>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>54.55 % ↑</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J12" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I12" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K12" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>54.55 % ↑</t>
+        </is>
+      </c>
+      <c r="M12" s="5" t="inlineStr">
+        <is>
+          <t>-120.00 % ↓</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Transaction12</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>1.86</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>0.33</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="4" t="n">
         <v>1.87</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="4" t="n">
         <v>1.86</v>
       </c>
-      <c r="F13" s="4" t="n">
+      <c r="F13" s="5" t="n">
         <v>1.52</v>
       </c>
-      <c r="G13" s="4" t="inlineStr">
+      <c r="G13" s="5" t="inlineStr">
         <is>
           <t>-22.37 % ↓</t>
         </is>
       </c>
-      <c r="H13" s="5" t="inlineStr">
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>78.29 % ↑</t>
         </is>
       </c>
-      <c r="I13" s="4" t="inlineStr">
+      <c r="I13" s="5" t="inlineStr">
         <is>
           <t>-23.03 % ↓</t>
         </is>
       </c>
-      <c r="J13" s="4" t="inlineStr">
+      <c r="J13" s="5" t="inlineStr">
         <is>
           <t>-22.37 % ↓</t>
         </is>
       </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>-0.54 % ↓</t>
+        </is>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>82.35 % ↑</t>
+        </is>
+      </c>
+      <c r="M13" s="5" t="inlineStr">
+        <is>
+          <t>-463.64 % ↓</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Transaction13</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="6" t="n">
         <v>2.89</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="5" t="n">
         <v>1.44</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="6" t="n">
         <v>2.89</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="6" t="n">
         <v>2.89</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="6" t="n">
         <v>2.89</v>
       </c>
-      <c r="G14" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>50.17 % ↑</t>
         </is>
       </c>
-      <c r="I14" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J14" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I14" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K14" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L14" s="6" t="inlineStr">
+        <is>
+          <t>50.17 % ↑</t>
+        </is>
+      </c>
+      <c r="M14" s="5" t="inlineStr">
+        <is>
+          <t>-100.69 % ↓</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Transaction14</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="5" t="n">
         <v>0.54</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="5" t="n">
         <v>1.29</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="5" t="n">
         <v>0.54</v>
       </c>
-      <c r="E15" s="4" t="n">
+      <c r="E15" s="5" t="n">
         <v>0.54</v>
       </c>
-      <c r="F15" s="4" t="n">
+      <c r="F15" s="5" t="n">
         <v>0.54</v>
       </c>
-      <c r="G15" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H15" s="4" t="inlineStr">
+      <c r="G15" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
         <is>
           <t>-138.89 % ↓</t>
         </is>
       </c>
-      <c r="I15" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J15" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I15" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K15" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L15" s="5" t="inlineStr">
+        <is>
+          <t>-138.89 % ↓</t>
+        </is>
+      </c>
+      <c r="M15" s="6" t="inlineStr">
+        <is>
+          <t>58.14 % ↑</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Transaction15</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="6" t="n">
         <v>2.87</v>
       </c>
-      <c r="D16" s="4" t="n">
+      <c r="D16" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="E16" s="4" t="n">
+      <c r="E16" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="F16" s="4" t="n">
+      <c r="F16" s="5" t="n">
         <v>0.12</v>
       </c>
-      <c r="G16" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="H16" s="4" t="inlineStr">
+      <c r="G16" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="H16" s="5" t="inlineStr">
         <is>
           <t>-2291.67 % ↓</t>
         </is>
       </c>
-      <c r="I16" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
-        </is>
-      </c>
-      <c r="J16" s="6" t="inlineStr">
-        <is>
-          <t>0.00 % →</t>
+      <c r="I16" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="K16" s="7" t="inlineStr">
+        <is>
+          <t>0.00 % →</t>
+        </is>
+      </c>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>-2291.67 % ↓</t>
+        </is>
+      </c>
+      <c r="M16" s="6" t="inlineStr">
+        <is>
+          <t>95.82 % ↑</t>
         </is>
       </c>
     </row>

--- a/consolidated_report.xlsx
+++ b/consolidated_report.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Graphs1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -164,6 +166,1257 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!H2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$H$3:$H$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R2</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!I2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$I$3:$I$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R3</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!J2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$J$3:$J$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R4</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!K2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$K$3:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R1</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!H2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$H$3:$H$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R2</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!I2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$I$3:$I$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R3</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!J2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$J$3:$J$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="13"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Graph of R5 Vs R4</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Data'!K2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'Data'!$A$2:$A$16</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Data'!$K$3:$K$16</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Transactions</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Variance (%)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>32</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>47</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>62</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="5715000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>41</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>61</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1387,5 +2640,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>